--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1845378.006510159</v>
+        <v>-1848297.913196433</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.112352789468648</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.906109254543196</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>4.018462044011843</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>4.562286607642875</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.562286607642875</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="R4" t="n">
         <v>4.562286607642875</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.22722437187246</v>
       </c>
       <c r="C5" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.87638523748972</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="H5" t="n">
-        <v>1.350839134382406</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="U5" t="n">
-        <v>25.09453918435919</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.09453918435919</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>22.1032701135839</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>22.10327011358357</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.1032701135839</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.10327011358357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,61 +1130,61 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>55.72339490806525</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>91.87278529632128</v>
+        <v>13.38870434448781</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>29.63673178547964</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>62.17490796054056</v>
+      </c>
+      <c r="D9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
-        <v>62.17490796054052</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>36.57392307749218</v>
       </c>
       <c r="S9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,70 +1294,70 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="E10" t="n">
+      <c r="J10" t="n">
+        <v>32.65832442698832</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>14.26856482072054</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="F10" t="n">
+      <c r="X10" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="G10" t="n">
-        <v>98.74883103803271</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>51.82194179032386</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>177.606538748304</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>21.83291915277537</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>64.85725227658561</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>154.1704721663364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>280.0807811524248</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516574</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>277.0515990838431</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>251.9334167995747</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>54.36262927910438</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1853,10 +1853,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545699</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645681</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116146</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189036</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2011,7 +2011,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2056,13 +2056,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545723</v>
@@ -2138,7 +2138,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179197</v>
       </c>
       <c r="W20" t="n">
         <v>317.630766365199</v>
@@ -2239,25 +2239,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H22" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2302,7 +2302,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998808</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H27" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T27" t="n">
         <v>189.0833237787849</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510296</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442991</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659984</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,16 +3004,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998808</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545723</v>
@@ -3086,13 +3086,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3187,25 +3187,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E34" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3250,7 +3250,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268468</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894974</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W38" t="n">
         <v>317.630766365199</v>
@@ -3569,7 +3569,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179197</v>
       </c>
       <c r="W41" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659984</v>
@@ -3907,16 +3907,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W43" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3986,10 +3986,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179197</v>
       </c>
       <c r="W44" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
         <v>117.0052706659984</v>
@@ -4144,16 +4144,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221693</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612639</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C2" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="D2" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="E2" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="F2" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="H2" t="n">
         <v>0.36498292861143</v>
@@ -4334,16 +4334,16 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M2" t="n">
-        <v>4.69915520587216</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N2" t="n">
-        <v>9.215818947438606</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O2" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P2" t="n">
         <v>18.2491464305715</v>
@@ -4352,28 +4352,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U2" t="n">
-        <v>11.50708643348915</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V2" t="n">
-        <v>11.50708643348915</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W2" t="n">
-        <v>11.50708643348915</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X2" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F3" t="n">
-        <v>4.424035498320363</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="G3" t="n">
-        <v>4.424035498320363</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="H3" t="n">
-        <v>4.424035498320363</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I3" t="n">
         <v>0.36498292861143</v>
@@ -4431,28 +4431,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R3" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S3" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T3" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U3" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="V3" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="W3" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="X3" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F4" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G4" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H4" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I4" t="n">
         <v>4.973353239361809</v>
@@ -4495,43 +4495,43 @@
         <v>4.881646670177876</v>
       </c>
       <c r="M4" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N4" t="n">
-        <v>9.398310411744323</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O4" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P4" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="R4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="S4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="T4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.68211798115556</v>
+        <v>34.30108326209321</v>
       </c>
       <c r="C5" t="n">
-        <v>24.33409860301497</v>
+        <v>34.30108326209321</v>
       </c>
       <c r="D5" t="n">
-        <v>24.33409860301497</v>
+        <v>34.30108326209321</v>
       </c>
       <c r="E5" t="n">
-        <v>24.33409860301497</v>
+        <v>34.30108326209321</v>
       </c>
       <c r="F5" t="n">
-        <v>17.38859785381149</v>
+        <v>27.35558251288974</v>
       </c>
       <c r="G5" t="n">
-        <v>3.372047108872378</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="H5" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="I5" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="J5" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="K5" t="n">
-        <v>26.85115692726433</v>
+        <v>26.85115692726473</v>
       </c>
       <c r="L5" t="n">
-        <v>26.85115692726433</v>
+        <v>45.50306437210884</v>
       </c>
       <c r="M5" t="n">
-        <v>46.75881561063372</v>
+        <v>65.41072305547858</v>
       </c>
       <c r="N5" t="n">
-        <v>71.6024094031493</v>
+        <v>90.25431684799456</v>
       </c>
       <c r="O5" t="n">
-        <v>81.72624929259266</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="P5" t="n">
-        <v>100.3781567374368</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.3781567374368</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="R5" t="n">
-        <v>75.03013735929616</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="S5" t="n">
-        <v>75.03013735929616</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="T5" t="n">
-        <v>75.03013735929616</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="U5" t="n">
-        <v>49.68211798115556</v>
+        <v>49.6821179811563</v>
       </c>
       <c r="V5" t="n">
-        <v>49.68211798115556</v>
+        <v>49.6821179811563</v>
       </c>
       <c r="W5" t="n">
-        <v>49.68211798115556</v>
+        <v>49.6821179811563</v>
       </c>
       <c r="X5" t="n">
-        <v>49.68211798115556</v>
+        <v>49.6821179811563</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.68211798115556</v>
+        <v>49.6821179811563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.35558251288933</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="C6" t="n">
-        <v>27.35558251288933</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="D6" t="n">
-        <v>27.35558251288933</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="E6" t="n">
-        <v>27.35558251288933</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="F6" t="n">
-        <v>27.35558251288933</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="G6" t="n">
-        <v>27.35558251288933</v>
+        <v>27.35558251288974</v>
       </c>
       <c r="H6" t="n">
-        <v>27.35558251288933</v>
+        <v>27.35558251288974</v>
       </c>
       <c r="I6" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="J6" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="K6" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="L6" t="n">
-        <v>26.85115692726433</v>
+        <v>26.85115692726473</v>
       </c>
       <c r="M6" t="n">
-        <v>51.69475071977993</v>
+        <v>39.05175841609848</v>
       </c>
       <c r="N6" t="n">
-        <v>76.53834451229554</v>
+        <v>63.89535220861444</v>
       </c>
       <c r="O6" t="n">
-        <v>100.3781567374368</v>
+        <v>88.7389460011304</v>
       </c>
       <c r="P6" t="n">
-        <v>100.3781567374368</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.3781567374368</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="R6" t="n">
-        <v>75.03013735929616</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="S6" t="n">
-        <v>75.03013735929616</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="T6" t="n">
-        <v>75.03013735929616</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="U6" t="n">
-        <v>75.03013735929616</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="V6" t="n">
-        <v>75.03013735929616</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="W6" t="n">
-        <v>75.03013735929616</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="X6" t="n">
-        <v>52.70360189102993</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.70360189102993</v>
+        <v>52.70360189103071</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.007563134748735</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="C7" t="n">
-        <v>2.007563134748735</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="D7" t="n">
-        <v>2.007563134748735</v>
+        <v>52.70360189103071</v>
       </c>
       <c r="E7" t="n">
-        <v>2.007563134748735</v>
+        <v>27.35558251288974</v>
       </c>
       <c r="F7" t="n">
-        <v>2.007563134748735</v>
+        <v>27.35558251288974</v>
       </c>
       <c r="G7" t="n">
-        <v>2.007563134748735</v>
+        <v>27.35558251288974</v>
       </c>
       <c r="H7" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="I7" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="J7" t="n">
-        <v>2.007563134748735</v>
+        <v>2.007563134748765</v>
       </c>
       <c r="K7" t="n">
-        <v>26.85115692726433</v>
+        <v>26.85115692726473</v>
       </c>
       <c r="L7" t="n">
-        <v>50.69096915240556</v>
+        <v>50.69096915240632</v>
       </c>
       <c r="M7" t="n">
-        <v>50.69096915240556</v>
+        <v>75.53456294492229</v>
       </c>
       <c r="N7" t="n">
-        <v>50.69096915240556</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="O7" t="n">
-        <v>75.53456294492116</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="P7" t="n">
-        <v>100.3781567374368</v>
+        <v>100.3781567374382</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.3781567374368</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="R7" t="n">
-        <v>100.3781567374368</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="S7" t="n">
-        <v>100.3781567374368</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="T7" t="n">
-        <v>100.3781567374368</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="U7" t="n">
-        <v>100.3781567374368</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="V7" t="n">
-        <v>75.03013735929616</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="W7" t="n">
-        <v>49.68211798115556</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="X7" t="n">
-        <v>24.33409860301497</v>
+        <v>75.03013735929727</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.007563134748735</v>
+        <v>75.03013735929727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.9604180251014</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="C8" t="n">
-        <v>221.9604180251014</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="D8" t="n">
-        <v>221.9604180251014</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="E8" t="n">
-        <v>221.9604180251014</v>
+        <v>248.9831790668981</v>
       </c>
       <c r="F8" t="n">
-        <v>215.0149172758979</v>
+        <v>135.7380678296015</v>
       </c>
       <c r="G8" t="n">
         <v>122.2141240472906</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="I8" t="n">
         <v>8.969012809993895</v>
@@ -4826,28 +4826,28 @@
         <v>448.4506404996947</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996947</v>
+        <v>418.514547787089</v>
       </c>
       <c r="S8" t="n">
-        <v>335.205529262398</v>
+        <v>418.514547787089</v>
       </c>
       <c r="T8" t="n">
-        <v>335.205529262398</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="U8" t="n">
-        <v>335.205529262398</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="V8" t="n">
-        <v>335.205529262398</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="W8" t="n">
-        <v>335.205529262398</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="X8" t="n">
-        <v>335.205529262398</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.205529262398</v>
+        <v>305.2694365497923</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.77195014387321</v>
+        <v>411.5072838557632</v>
       </c>
       <c r="C9" t="n">
-        <v>71.77195014387321</v>
+        <v>348.7043465218838</v>
       </c>
       <c r="D9" t="n">
-        <v>71.77195014387321</v>
+        <v>235.4592352845872</v>
       </c>
       <c r="E9" t="n">
-        <v>71.77195014387321</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="F9" t="n">
-        <v>71.77195014387321</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="G9" t="n">
         <v>8.969012809993895</v>
@@ -4890,10 +4890,10 @@
         <v>119.1887676792233</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.4394396403951</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265722</v>
+        <v>287.4309731640695</v>
       </c>
       <c r="O9" t="n">
         <v>387.4830745953195</v>
@@ -4908,25 +4908,25 @@
         <v>411.5072838557632</v>
       </c>
       <c r="S9" t="n">
-        <v>298.2621726184665</v>
+        <v>411.5072838557632</v>
       </c>
       <c r="T9" t="n">
-        <v>298.2621726184665</v>
+        <v>411.5072838557632</v>
       </c>
       <c r="U9" t="n">
-        <v>298.2621726184665</v>
+        <v>411.5072838557632</v>
       </c>
       <c r="V9" t="n">
-        <v>298.2621726184665</v>
+        <v>411.5072838557632</v>
       </c>
       <c r="W9" t="n">
-        <v>185.0170613811699</v>
+        <v>411.5072838557632</v>
       </c>
       <c r="X9" t="n">
-        <v>185.0170613811699</v>
+        <v>411.5072838557632</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.0170613811699</v>
+        <v>411.5072838557632</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>448.4506404996947</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="C10" t="n">
-        <v>448.4506404996947</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="D10" t="n">
-        <v>335.205529262398</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="E10" t="n">
-        <v>221.9604180251014</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="F10" t="n">
-        <v>108.7153067878047</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993895</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993895</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993895</v>
+        <v>41.95721930190129</v>
       </c>
       <c r="J10" t="n">
         <v>8.969012809993895</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993895</v>
+        <v>85.67486684193854</v>
       </c>
       <c r="L10" t="n">
-        <v>119.9605463336683</v>
+        <v>85.67486684193854</v>
       </c>
       <c r="M10" t="n">
         <v>126.3601356095206</v>
@@ -4981,31 +4981,31 @@
         <v>448.4506404996947</v>
       </c>
       <c r="Q10" t="n">
-        <v>448.4506404996947</v>
+        <v>434.0379487615932</v>
       </c>
       <c r="R10" t="n">
-        <v>448.4506404996947</v>
+        <v>434.0379487615932</v>
       </c>
       <c r="S10" t="n">
-        <v>448.4506404996947</v>
+        <v>434.0379487615932</v>
       </c>
       <c r="T10" t="n">
-        <v>448.4506404996947</v>
+        <v>434.0379487615932</v>
       </c>
       <c r="U10" t="n">
-        <v>448.4506404996947</v>
+        <v>434.0379487615932</v>
       </c>
       <c r="V10" t="n">
-        <v>448.4506404996947</v>
+        <v>434.0379487615932</v>
       </c>
       <c r="W10" t="n">
-        <v>448.4506404996947</v>
+        <v>320.7928375242965</v>
       </c>
       <c r="X10" t="n">
-        <v>448.4506404996947</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="Y10" t="n">
-        <v>448.4506404996947</v>
+        <v>155.2023305391979</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1698.50962791956</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.547110979148</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>971.2814123723979</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>585.4931597741536</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>585.4931597741536</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3303.552367919498</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3097.574620303721</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3097.574620303721</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3097.574620303721</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.50962791956</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>798.5065461617548</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C13" t="n">
-        <v>629.570363233848</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D13" t="n">
-        <v>479.4537238215122</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E13" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1861.782172051538</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1670.096287878364</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1448.32967244789</v>
       </c>
       <c r="U13" t="n">
-        <v>1356.675339798491</v>
+        <v>1159.226805573534</v>
       </c>
       <c r="V13" t="n">
-        <v>1356.675339798491</v>
+        <v>1159.226805573534</v>
       </c>
       <c r="W13" t="n">
-        <v>1200.947590135525</v>
+        <v>869.8096355365731</v>
       </c>
       <c r="X13" t="n">
-        <v>1200.947590135525</v>
+        <v>641.8200846385557</v>
       </c>
       <c r="Y13" t="n">
-        <v>980.1550109919946</v>
+        <v>641.8200846385557</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>2239.492420770136</v>
       </c>
       <c r="C14" t="n">
         <v>1956.582540818192</v>
@@ -5267,19 +5267,19 @@
         <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347372</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810102</v>
+        <v>97.48584166810107</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5291,37 +5291,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599078</v>
+        <v>4156.161510599077</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632627</v>
+        <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423756</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080185</v>
+        <v>3369.000248080184</v>
       </c>
       <c r="W14" t="n">
-        <v>3089.150147995495</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="X14" t="n">
-        <v>2715.684389734415</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="Y14" t="n">
-        <v>2325.545057758603</v>
+        <v>2626.092260834258</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
         <v>216.5575109835859</v>
@@ -5361,13 +5361,13 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O15" t="n">
         <v>1959.694692760353</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.8362723956623</v>
+        <v>1096.36890102849</v>
       </c>
       <c r="C16" t="n">
-        <v>529.9000894677554</v>
+        <v>927.4327181005835</v>
       </c>
       <c r="D16" t="n">
-        <v>379.7834500554197</v>
+        <v>777.3160786882478</v>
       </c>
       <c r="E16" t="n">
-        <v>231.8703564730266</v>
+        <v>629.4029851058547</v>
       </c>
       <c r="F16" t="n">
-        <v>84.98040897511621</v>
+        <v>482.5130376079443</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511621</v>
+        <v>315.1533397258816</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511621</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869775</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042031</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.168624967671</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
-        <v>2279.168624967671</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2093.462713255855</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="T16" t="n">
-        <v>1873.162236091859</v>
+        <v>1984.466456233544</v>
       </c>
       <c r="U16" t="n">
-        <v>1873.162236091859</v>
+        <v>1695.382306017908</v>
       </c>
       <c r="V16" t="n">
-        <v>1618.68403730441</v>
+        <v>1440.697817812021</v>
       </c>
       <c r="W16" t="n">
-        <v>1329.266867267449</v>
+        <v>1151.280647775061</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.277316369432</v>
+        <v>1096.36890102849</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.484737225902</v>
+        <v>1096.36890102849</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
         <v>3795.851627400162</v>
@@ -5589,31 +5589,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334502</v>
+        <v>519.59856033345</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538066</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="N18" t="n">
-        <v>2100.171002464469</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5650,34 +5650,34 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F19" t="n">
         <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5692,13 +5692,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127668</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.800273616283</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>841.8200879193078</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M21" t="n">
-        <v>1390.738552529597</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="N21" t="n">
-        <v>1662.137679823383</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O21" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039801</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443602</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902777</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P22" t="n">
         <v>2392.455631028688</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796659</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M24" t="n">
-        <v>973.3971899277778</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C25" t="n">
         <v>735.8557341477715</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039798</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F25" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6160,19 +6160,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127668</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076843</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511625</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694437</v>
+        <v>841.8200879193078</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1381.839344833951</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609059</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039815</v>
       </c>
       <c r="F28" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315398</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
@@ -6412,22 +6412,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,7 +6449,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6461,22 +6461,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076857</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951468</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6488,25 +6488,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1522.315654538066</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375539</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
         <v>2555.644190323788</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749443</v>
@@ -6619,13 +6619,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6640,19 +6640,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357083</v>
@@ -6677,7 +6677,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
@@ -6686,16 +6686,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076835</v>
@@ -6707,22 +6707,22 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
         <v>4188.091007924546</v>
@@ -6774,7 +6774,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902777</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
@@ -7014,22 +7014,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N36" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2171.957806054384</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
@@ -7093,19 +7093,19 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313935</v>
@@ -7114,7 +7114,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352542</v>
@@ -7154,16 +7154,16 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511621</v>
@@ -7172,10 +7172,10 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J38" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050962</v>
@@ -7187,7 +7187,7 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612703</v>
@@ -7251,19 +7251,19 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J39" t="n">
-        <v>216.5575109835859</v>
+        <v>165.625743894656</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334502</v>
+        <v>468.6667932445202</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277775</v>
+        <v>922.4654228388475</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538066</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C40" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511621</v>
@@ -7336,46 +7336,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7409,10 +7409,10 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7424,7 +7424,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612703</v>
@@ -7445,16 +7445,16 @@
         <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448922</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K43" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
         <v>2487.049233352542</v>
@@ -7600,16 +7600,16 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,7 +7634,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7646,16 +7646,16 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076848</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
         <v>2681.771598889755</v>
@@ -7682,13 +7682,13 @@
         <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
         <v>2476.13298385146</v>
@@ -7725,22 +7725,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277775</v>
+        <v>841.8200879193078</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538066</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>1968.593900455999</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.644190323788</v>
+        <v>2474.998855404249</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,13 +7819,13 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352542</v>
@@ -7834,10 +7834,10 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -7846,7 +7846,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7982,10 +7982,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
-        <v>28.8362588753597</v>
+        <v>33.21421067057256</v>
       </c>
       <c r="M2" t="n">
-        <v>4.474515194684224</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>13.72420959127265</v>
       </c>
       <c r="P2" t="n">
-        <v>47.23127172271754</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q2" t="n">
         <v>80.70197082457096</v>
@@ -8143,7 +8143,7 @@
         <v>51.99825569640058</v>
       </c>
       <c r="M4" t="n">
-        <v>46.72338342663512</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N4" t="n">
         <v>42.23779755379654</v>
@@ -8152,7 +8152,7 @@
         <v>59.69565574609634</v>
       </c>
       <c r="P4" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>59.98603790188606</v>
+        <v>59.98603790188588</v>
       </c>
       <c r="K5" t="n">
-        <v>63.74703169181275</v>
+        <v>63.74703169181286</v>
       </c>
       <c r="L5" t="n">
-        <v>10.67732791547203</v>
+        <v>29.51763846581928</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>44.96206583987182</v>
+        <v>26.12175528952395</v>
       </c>
       <c r="Q5" t="n">
-        <v>68.27569035187753</v>
+        <v>68.2756903518773</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.73519944804821</v>
+        <v>54.73519944804811</v>
       </c>
       <c r="K6" t="n">
-        <v>14.6069065521002</v>
+        <v>14.60690655210003</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.56433563048685</v>
+        <v>42.56433563048671</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>79.77321457716606</v>
+        <v>79.77321457716633</v>
       </c>
       <c r="L7" t="n">
-        <v>63.84262123609216</v>
+        <v>63.84262123609238</v>
       </c>
       <c r="M7" t="n">
-        <v>38.63226197292799</v>
+        <v>63.72680115728743</v>
       </c>
       <c r="N7" t="n">
-        <v>29.77677827607003</v>
+        <v>54.87131746042947</v>
       </c>
       <c r="O7" t="n">
-        <v>73.1164850674912</v>
+        <v>48.02194588313189</v>
       </c>
       <c r="P7" t="n">
-        <v>85.44012623234092</v>
+        <v>60.34558704798162</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,13 +8611,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632461</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3514840274684</v>
+        <v>7.238823902544738</v>
       </c>
       <c r="M10" t="n">
-        <v>10.80536147518206</v>
+        <v>45.43736096177781</v>
       </c>
       <c r="N10" t="n">
         <v>108.4136727881176</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>350.1207550130401</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>9.429168768844599</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>240.5639260227628</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9226849201952</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.93700469168593</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>367.8249914239258</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>233.3151869051494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.35484263540046</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.07490039346172</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>132.3525261702546</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>85.19211061858272</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>72.18936963356992</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.204226524253329</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>171.3470261099328</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.444267011014745e-12</v>
       </c>
       <c r="U17" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.323607902726687e-12</v>
       </c>
       <c r="H28" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1238378.026457331</v>
+        <v>1238378.02645733</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1325255.767118088</v>
+        <v>1325255.767118087</v>
       </c>
     </row>
     <row r="8">
@@ -26326,16 +26326,16 @@
         <v>115011.4772926965</v>
       </c>
       <c r="G2" t="n">
-        <v>123156.2654796427</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="H2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="I2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="J2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796425</v>
@@ -26347,13 +26347,13 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>315841.5953976293</v>
       </c>
       <c r="C3" t="n">
-        <v>32698.16472960311</v>
+        <v>32698.1647296037</v>
       </c>
       <c r="D3" t="n">
-        <v>130922.5540522292</v>
+        <v>130922.5540522287</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963079</v>
+        <v>215052.1096963076</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177119</v>
+        <v>25288.16188177116</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>5.27147676621098e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1193.694917170098</v>
       </c>
       <c r="K3" t="n">
-        <v>5284.344781164382</v>
+        <v>5284.344781164546</v>
       </c>
       <c r="L3" t="n">
-        <v>47311.66512873954</v>
+        <v>47311.66512873945</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383015</v>
+        <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
         <v>56542.2935957862</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325582.2724464701</v>
+        <v>325582.2724464703</v>
       </c>
       <c r="C4" t="n">
-        <v>343275.4043309503</v>
+        <v>343275.4043309501</v>
       </c>
       <c r="D4" t="n">
         <v>302817.5547799163</v>
@@ -26430,34 +26430,34 @@
         <v>12329.65389383922</v>
       </c>
       <c r="G4" t="n">
+        <v>43399.53897605928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43399.53897605932</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43399.53897605934</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43399.53897605933</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43399.5389760594</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43399.53897605938</v>
+      </c>
+      <c r="M4" t="n">
         <v>43399.5389760593</v>
       </c>
-      <c r="H4" t="n">
-        <v>43399.5389760593</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43399.53897605922</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43399.53897605922</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>43399.53897605935</v>
       </c>
-      <c r="L4" t="n">
-        <v>43399.53897605932</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43399.53897605928</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43399.53897605933</v>
-      </c>
       <c r="O4" t="n">
-        <v>43399.5389760593</v>
+        <v>43399.53897605931</v>
       </c>
       <c r="P4" t="n">
-        <v>43399.53897605932</v>
+        <v>43399.53897605931</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>41015.74224309583</v>
       </c>
       <c r="C5" t="n">
-        <v>42888.09979601025</v>
+        <v>42888.09979601028</v>
       </c>
       <c r="D5" t="n">
         <v>50823.37311172271</v>
@@ -26479,25 +26479,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060699</v>
+        <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215525</v>
@@ -26506,10 +26506,10 @@
         <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-566476.3302582811</v>
+        <v>-566596.2133524602</v>
       </c>
       <c r="C6" t="n">
-        <v>-295705.4033769213</v>
+        <v>-295705.4033769216</v>
       </c>
       <c r="D6" t="n">
-        <v>-361407.2164642258</v>
+        <v>-361407.2164642253</v>
       </c>
       <c r="E6" t="n">
-        <v>-691998.2474752115</v>
+        <v>-692345.8664050174</v>
       </c>
       <c r="F6" t="n">
-        <v>-204819.2822980576</v>
+        <v>-204955.0287678397</v>
       </c>
       <c r="G6" t="n">
-        <v>-40637.86948034309</v>
+        <v>-40637.86948034323</v>
       </c>
       <c r="H6" t="n">
-        <v>-15349.70759857191</v>
+        <v>-15349.70759857197</v>
       </c>
       <c r="I6" t="n">
-        <v>-15349.70759857203</v>
+        <v>-15349.707598572</v>
       </c>
       <c r="J6" t="n">
-        <v>-16543.40251574211</v>
+        <v>-16543.40251574205</v>
       </c>
       <c r="K6" t="n">
-        <v>-20634.0523797365</v>
+        <v>-20634.05237973674</v>
       </c>
       <c r="L6" t="n">
-        <v>-62661.37272731151</v>
+        <v>-62661.37272731149</v>
       </c>
       <c r="M6" t="n">
-        <v>-194599.3525368735</v>
+        <v>-194599.3525368734</v>
       </c>
       <c r="N6" t="n">
-        <v>-71892.00119435819</v>
+        <v>-71892.00119435834</v>
       </c>
       <c r="O6" t="n">
-        <v>-15349.70759857194</v>
+        <v>-15349.70759857206</v>
       </c>
       <c r="P6" t="n">
-        <v>-15349.70759857201</v>
+        <v>-15349.7075985721</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>354.8051290642755</v>
+        <v>354.805129064276</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985023</v>
@@ -26750,7 +26750,7 @@
         <v>1278.159870620123</v>
       </c>
       <c r="G3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620122</v>
       </c>
       <c r="H3" t="n">
         <v>1278.159870620123</v>
@@ -26790,22 +26790,22 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>25.09453918435919</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26920,23 +26920,23 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.618527782440651e-14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221398</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-8.526512829121202e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221399</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>28.6236970756907</v>
+        <v>28.62369707569121</v>
       </c>
       <c r="D3" t="n">
-        <v>121.3106221342268</v>
+        <v>121.3106221342263</v>
       </c>
       <c r="E3" t="n">
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268247</v>
+        <v>188.3831700268242</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>20.53225257671632</v>
+        <v>20.53225257671669</v>
       </c>
       <c r="D4" t="n">
-        <v>87.01812094056447</v>
+        <v>87.0181209405641</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
         <v>230.8536567866597</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>4.562286607642818</v>
       </c>
       <c r="K4" t="n">
-        <v>20.53225257671636</v>
+        <v>20.53225257671718</v>
       </c>
       <c r="L4" t="n">
-        <v>87.01812094056424</v>
+        <v>87.0181209405639</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773688</v>
       </c>
       <c r="N4" t="n">
         <v>230.8536567866597</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="K4" t="n">
-        <v>20.53225257671632</v>
+        <v>20.53225257671669</v>
       </c>
       <c r="L4" t="n">
-        <v>87.01812094056447</v>
+        <v>87.0181209405641</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
         <v>230.8536567866597</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0456339133427</v>
+        <v>81.46324584656804</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
         <v>179.1392278518137</v>
@@ -27433,7 +27433,7 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U2" t="n">
-        <v>249.1283975472761</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>140.506925785741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6419193661031</v>
       </c>
       <c r="H3" t="n">
-        <v>105.4594865644317</v>
+        <v>100.8971999567888</v>
       </c>
       <c r="I3" t="n">
-        <v>61.22228174032408</v>
+        <v>60.67845717669304</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.59722706556381</v>
+        <v>52.57876502155196</v>
       </c>
       <c r="S3" t="n">
         <v>158.6512997408977</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>140.8587614152884</v>
       </c>
       <c r="G4" t="n">
         <v>167.4027833335613</v>
@@ -27555,7 +27555,7 @@
         <v>156.9975751224423</v>
       </c>
       <c r="I4" t="n">
-        <v>133.7433542436032</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J4" t="n">
         <v>47.21143454878033</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.34636041377521</v>
+        <v>32.89018497740624</v>
       </c>
       <c r="R4" t="n">
         <v>146.2836725955014</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>367.5066172916081</v>
       </c>
       <c r="C5" t="n">
-        <v>340.1783525866484</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>388.7818460531302</v>
       </c>
       <c r="H5" t="n">
-        <v>323.5163327179495</v>
+        <v>324.8671718523319</v>
       </c>
       <c r="I5" t="n">
-        <v>155.4864433864844</v>
+        <v>155.4864433864843</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.1764774961521</v>
+        <v>60.27101668051117</v>
       </c>
       <c r="S5" t="n">
         <v>176.5170670594024</v>
       </c>
       <c r="T5" t="n">
-        <v>216.8519924687389</v>
+        <v>191.7574532843794</v>
       </c>
       <c r="U5" t="n">
-        <v>226.1370055412657</v>
+        <v>226.1370055412653</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141.4386444655082</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5803514139026</v>
+        <v>111.485812229543</v>
       </c>
       <c r="H6" t="n">
         <v>104.8648697629159</v>
       </c>
       <c r="I6" t="n">
-        <v>38.02643080710718</v>
+        <v>38.02643080710677</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.68007414720955</v>
+        <v>52.77461333156867</v>
       </c>
       <c r="S6" t="n">
-        <v>157.5077020322604</v>
+        <v>132.4131628479008</v>
       </c>
       <c r="T6" t="n">
         <v>197.0886351701983</v>
@@ -27752,13 +27752,13 @@
         <v>225.891173807994</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>210.6973170358414</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>183.6697150898939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5122029046285</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>121.3394234622096</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3511668306379</v>
       </c>
       <c r="H7" t="n">
-        <v>156.5386574873599</v>
+        <v>131.4441183030003</v>
       </c>
       <c r="I7" t="n">
         <v>136.2095672724284</v>
       </c>
       <c r="J7" t="n">
-        <v>48.12443439974048</v>
+        <v>48.12443439974042</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.58646876298879</v>
+        <v>7.491929578629147</v>
       </c>
       <c r="R7" t="n">
-        <v>148.525093535335</v>
+        <v>148.5250935353349</v>
       </c>
       <c r="S7" t="n">
         <v>212.866410620313</v>
@@ -27831,16 +27831,16 @@
         <v>286.284130491337</v>
       </c>
       <c r="V7" t="n">
-        <v>227.0431041394688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.4284591522318</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>200.615116204678</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.4813832385112</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.6211815385569</v>
+        <v>327.0104467554153</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>294.7633856167878</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>321.5159190481665</v>
-      </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>207.7600497819524</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410429</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547964</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519755</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27929,22 +27929,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.42052352494366</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>110.5335910277752</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.33240543971507</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047727</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.9565522684602</v>
       </c>
       <c r="G9" t="n">
-        <v>74.14451117179033</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>40.54833922112493</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
         <v>196.0368949650912</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.5823230359959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>36.50281289328868</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>34.32130252164549</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>33.30838789800757</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>68.38357893301892</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
         <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>17.51829177012729</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698832</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.26856482072054</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>174.4103382116673</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>166.7627115617709</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605506</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605503</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221289</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221243</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605503</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605503</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221298</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605503</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221491</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605503</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221152</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605503</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V41" t="n">
-        <v>31.610202352214</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="W41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221275</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605503</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.610202352214</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="W44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.426352277645327</v>
+        <v>1.42635227764533</v>
       </c>
       <c r="H5" t="n">
-        <v>14.60763026343521</v>
+        <v>14.60763026343523</v>
       </c>
       <c r="I5" t="n">
-        <v>54.98944618392154</v>
+        <v>54.98944618392162</v>
       </c>
       <c r="J5" t="n">
-        <v>121.0598666248002</v>
+        <v>121.0598666248004</v>
       </c>
       <c r="K5" t="n">
-        <v>181.437358537527</v>
+        <v>181.4373585375272</v>
       </c>
       <c r="L5" t="n">
-        <v>225.0890870545152</v>
+        <v>225.0890870545155</v>
       </c>
       <c r="M5" t="n">
-        <v>250.4549793720903</v>
+        <v>250.4549793720907</v>
       </c>
       <c r="N5" t="n">
-        <v>254.5076027809501</v>
+        <v>254.5076027809505</v>
       </c>
       <c r="O5" t="n">
-        <v>240.3243123201144</v>
+        <v>240.3243123201147</v>
       </c>
       <c r="P5" t="n">
-        <v>205.1112404657453</v>
+        <v>205.1112404657456</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.029999522572</v>
+        <v>154.0299995225722</v>
       </c>
       <c r="R5" t="n">
-        <v>89.59810126063839</v>
+        <v>89.59810126063851</v>
       </c>
       <c r="S5" t="n">
-        <v>32.50300252684293</v>
+        <v>32.50300252684298</v>
       </c>
       <c r="T5" t="n">
-        <v>6.243857095392425</v>
+        <v>6.243857095392434</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1141081822116262</v>
+        <v>0.1141081822116263</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7631657493080642</v>
+        <v>0.7631657493080654</v>
       </c>
       <c r="H6" t="n">
-        <v>7.370574473580517</v>
+        <v>7.370574473580527</v>
       </c>
       <c r="I6" t="n">
-        <v>26.27566285994871</v>
+        <v>26.27566285994875</v>
       </c>
       <c r="J6" t="n">
-        <v>72.10242721861849</v>
+        <v>72.10242721861859</v>
       </c>
       <c r="K6" t="n">
-        <v>123.2345324222588</v>
+        <v>123.234532422259</v>
       </c>
       <c r="L6" t="n">
-        <v>163.6489189642334</v>
+        <v>163.6489189642338</v>
       </c>
       <c r="M6" t="n">
-        <v>167.2285731063775</v>
+        <v>154.4578738097292</v>
       </c>
       <c r="N6" t="n">
-        <v>156.4362512676925</v>
+        <v>156.4362512676929</v>
       </c>
       <c r="O6" t="n">
-        <v>166.676862853678</v>
+        <v>167.690783628804</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>145.7311859358533</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.41743845553466</v>
+        <v>97.41743845553481</v>
       </c>
       <c r="R6" t="n">
-        <v>47.3832208210744</v>
+        <v>47.38322082107447</v>
       </c>
       <c r="S6" t="n">
-        <v>14.17546907157741</v>
+        <v>14.17546907157743</v>
       </c>
       <c r="T6" t="n">
-        <v>3.076093524623293</v>
+        <v>3.076093524623297</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05020827298079372</v>
+        <v>0.0502082729807938</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6398125278208245</v>
+        <v>0.6398125278208255</v>
       </c>
       <c r="H7" t="n">
-        <v>5.688515020079699</v>
+        <v>5.688515020079707</v>
       </c>
       <c r="I7" t="n">
-        <v>19.24090765482989</v>
+        <v>19.24090765482992</v>
       </c>
       <c r="J7" t="n">
-        <v>45.2347457169323</v>
+        <v>45.23474571693236</v>
       </c>
       <c r="K7" t="n">
-        <v>74.33458277772851</v>
+        <v>74.33458277772861</v>
       </c>
       <c r="L7" t="n">
-        <v>95.12267345437969</v>
+        <v>95.12267345437984</v>
       </c>
       <c r="M7" t="n">
-        <v>100.2935219746771</v>
+        <v>100.2935219746772</v>
       </c>
       <c r="N7" t="n">
-        <v>97.90876618916316</v>
+        <v>97.9087661891633</v>
       </c>
       <c r="O7" t="n">
-        <v>90.43459256871077</v>
+        <v>90.4345925687109</v>
       </c>
       <c r="P7" t="n">
-        <v>77.38241700116588</v>
+        <v>77.38241700116599</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.5755744887056</v>
+        <v>53.57557448870568</v>
       </c>
       <c r="R7" t="n">
-        <v>28.76829784183452</v>
+        <v>28.76829784183457</v>
       </c>
       <c r="S7" t="n">
-        <v>11.15018741665927</v>
+        <v>11.15018741665929</v>
       </c>
       <c r="T7" t="n">
-        <v>2.733744437052613</v>
+        <v>2.733744437052617</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0348988651538632</v>
+        <v>0.03489886515386325</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,13 +31610,13 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>199.9629954989595</v>
       </c>
       <c r="N9" t="n">
         <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>189.3752746148963</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
         <v>195.5578073177396</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I14" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32069,31 +32069,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J15" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N15" t="n">
-        <v>616.0816594412372</v>
+        <v>573.1387203886732</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q15" t="n">
         <v>350.9392912691326</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838146</v>
@@ -32160,31 +32160,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S16" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171342</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879727</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383703</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171634</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.8671910869748</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654294</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117587</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565674</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829623</v>
       </c>
       <c r="Q17" t="n">
         <v>554.881956697201</v>
@@ -32263,10 +32263,10 @@
         <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734506</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537073</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>26.551962595335</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781096</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247269</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160627</v>
+        <v>591.0665301174809</v>
       </c>
       <c r="O18" t="n">
-        <v>211.6584993001656</v>
+        <v>654.1164009578281</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>524.9860796892348</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691325</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486995</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
@@ -32388,16 +32388,16 @@
         <v>20.49246481092591</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051419</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151665</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692046</v>
       </c>
       <c r="M19" t="n">
         <v>361.3001745754552</v>
@@ -32409,7 +32409,7 @@
         <v>325.7840929246175</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381983</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
@@ -32418,13 +32418,13 @@
         <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227497</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925529</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118154</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
         <v>443.9435090247269</v>
@@ -32558,10 +32558,10 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>405.482244703319</v>
+        <v>591.0665301174805</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578282</v>
@@ -32570,10 +32570,10 @@
         <v>524.9860796892349</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>601.8588519561656</v>
       </c>
       <c r="N24" t="n">
-        <v>616.081659441237</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I26" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -32977,7 +32977,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M27" t="n">
-        <v>457.1748150187216</v>
+        <v>687.6080308054961</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T27" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H28" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J28" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K28" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P28" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33272,10 +33272,10 @@
         <v>696.5971294879668</v>
       </c>
       <c r="N30" t="n">
-        <v>663.5877533333052</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33734,10 +33734,10 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155583</v>
@@ -33749,10 +33749,10 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P36" t="n">
-        <v>521.5364117268593</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115855</v>
+        <v>208.2975609288281</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247269</v>
@@ -33986,7 +33986,7 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O39" t="n">
-        <v>602.6701715750705</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34147,7 +34147,7 @@
         <v>865.7509905565676</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q41" t="n">
         <v>554.881956697201</v>
@@ -34211,10 +34211,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>223.8954149958806</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879668</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34366,7 +34366,7 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383717</v>
       </c>
       <c r="K44" t="n">
         <v>653.6149895171635</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>443.9435090247269</v>
@@ -34460,10 +34460,10 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6701715750705</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>215.4343416764913</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34702,10 +34702,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M2" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N2" t="n">
         <v>4.562286607642875</v>
@@ -34714,7 +34714,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="P2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N4" t="n">
         <v>4.562286607642875</v>
@@ -34872,7 +34872,7 @@
         <v>4.377951795212859</v>
       </c>
       <c r="P4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>25.09453918435919</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>18.84031055034758</v>
       </c>
       <c r="M5" t="n">
-        <v>20.10874614481756</v>
+        <v>20.10874614481793</v>
       </c>
       <c r="N5" t="n">
-        <v>25.09453918435918</v>
+        <v>25.09453918435958</v>
       </c>
       <c r="O5" t="n">
-        <v>10.22610089842763</v>
+        <v>10.22610089842797</v>
       </c>
       <c r="P5" t="n">
-        <v>18.84031055034759</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.09453918435919</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="M6" t="n">
-        <v>25.09453918435919</v>
+        <v>12.32383988771086</v>
       </c>
       <c r="N6" t="n">
-        <v>25.09453918435919</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="O6" t="n">
-        <v>24.08061840923357</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>11.75677852152307</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>25.09453918435919</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="L7" t="n">
-        <v>24.08061840923357</v>
+        <v>24.08061840923394</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>25.09453918435956</v>
       </c>
       <c r="O7" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>25.09453918435919</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>83.80515100391693</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694122</v>
       </c>
       <c r="N9" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>46.77903017045187</v>
+        <v>101.0627287184344</v>
       </c>
       <c r="P9" t="n">
         <v>61.58339990340932</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>77.48066063832792</v>
       </c>
       <c r="L10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.464231591769993</v>
+        <v>41.09623107836575</v>
       </c>
       <c r="N10" t="n">
         <v>112.1126601249237</v>
@@ -35647,28 +35647,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N15" t="n">
-        <v>484.7399473579039</v>
+        <v>441.7970083053398</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831111</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714183</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892838</v>
+        <v>245.5154777892837</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.2625912295208</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.8840515372958</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386572</v>
       </c>
       <c r="P16" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721828</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169876</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381567</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151679</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348807</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276927</v>
       </c>
       <c r="Q17" t="n">
         <v>332.5762668227514</v>
@@ -35963,28 +35963,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327294</v>
+        <v>459.7248180341476</v>
       </c>
       <c r="O18" t="n">
-        <v>69.06225485572118</v>
+        <v>511.5201565133837</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749045</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.957517183111</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375735</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
@@ -36206,10 +36206,10 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.1405326199857</v>
+        <v>459.7248180341472</v>
       </c>
       <c r="O21" t="n">
         <v>511.5201565133838</v>
@@ -36218,10 +36218,10 @@
         <v>391.0116722749046</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414966</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>459.7248180341472</v>
       </c>
       <c r="N24" t="n">
-        <v>484.7399473579036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36534,7 +36534,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641566</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M27" t="n">
-        <v>315.0407810967033</v>
+        <v>545.4739968834778</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116863</v>
       </c>
       <c r="K29" t="n">
         <v>433.525138472183</v>
@@ -36847,7 +36847,7 @@
         <v>635.6527791348808</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276947</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q29" t="n">
         <v>332.5762668227514</v>
@@ -36920,10 +36920,10 @@
         <v>554.4630955659484</v>
       </c>
       <c r="N30" t="n">
-        <v>532.2460412499719</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
         <v>138.4502995641581</v>
@@ -37075,7 +37075,7 @@
         <v>575.1007761169876</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381579</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N32" t="n">
         <v>687.4322072151681</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227514</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440256</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817338</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
         <v>138.4502995641581</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356841</v>
@@ -37397,10 +37397,10 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P36" t="n">
-        <v>387.5620043125291</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.9061636449188</v>
+        <v>81.45993426216137</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37634,7 +37634,7 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O39" t="n">
-        <v>460.073927130626</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641556</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>635.6527791348808</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227514</v>
@@ -37859,10 +37859,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>86.05397602152159</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659484</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010895</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116854</v>
       </c>
       <c r="K44" t="n">
         <v>433.525138472183</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38108,10 +38108,10 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>460.073927130626</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>81.45993426216104</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
